--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
   <si>
     <t>API Mode</t>
   </si>
@@ -400,6 +400,87 @@
   </si>
   <si>
     <t>RMA-NSWX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-001</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-002</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0xAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0yAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0zAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-001</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-002</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2ZAAU</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2aAAE</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2bAAE</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-3</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-001</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-002</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3DAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3EAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3FAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +510,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -799,7 +1096,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -897,11 +1194,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -963,8 +1314,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1854,12 +2241,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.35546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1909,10 +2296,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1921,7 +2308,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1938,10 +2325,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1950,7 +2337,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1967,10 +2354,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1979,7 +2366,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>API Mode</t>
   </si>
@@ -481,6 +481,60 @@
   </si>
   <si>
     <t>RMA-B23Z-1-3</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-001</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-002</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6HAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6IAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6JAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-001</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-002</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7UAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7VAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7WAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-3</t>
   </si>
 </sst>
 </file>
@@ -490,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +564,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1096,7 +1294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1248,11 +1446,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1350,8 +1584,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2242,11 +2500,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.94921875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2296,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2308,7 +2566,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2325,10 +2583,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2337,7 +2595,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,10 +2612,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2366,7 +2624,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="292">
   <si>
     <t>API Mode</t>
   </si>
@@ -562,6 +562,363 @@
   </si>
   <si>
     <t>RMA-W31O-1-3</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-001</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-002</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQMAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQNAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLQOAA2</t>
+  </si>
+  <si>
+    <t>RMA-HVLI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-001</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-002</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRyAAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLRzAAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLS0AAM</t>
+  </si>
+  <si>
+    <t>RMA-KBTA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-001</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-002</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSSAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSTAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSUAA2</t>
+  </si>
+  <si>
+    <t>RMA-ZNHC-1-3</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-001</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-002</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSmAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSnAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLSoAAM</t>
+  </si>
+  <si>
+    <t>RMA-GA3T-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-001</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-002</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTkAAM</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTlAAM</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTmAAM</t>
+  </si>
+  <si>
+    <t>RMA-7DOL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-001</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-002</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTuAAM</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTvAAM</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTwAAM</t>
+  </si>
+  <si>
+    <t>RMA-R8MP-1-3</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-001</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-002</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLTzAAM</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU0AAM</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLU1AAM</t>
+  </si>
+  <si>
+    <t>RMA-K1H3-1-3</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-001</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-002</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUEAA2</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUFAA2</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLUGAA2</t>
+  </si>
+  <si>
+    <t>RMA-ULSI-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7L78-001</t>
+  </si>
+  <si>
+    <t>RMA-7L78-002</t>
+  </si>
+  <si>
+    <t>RMA-7L78-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWPAA2</t>
+  </si>
+  <si>
+    <t>RMA-7L78-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWQAA2</t>
+  </si>
+  <si>
+    <t>RMA-7L78-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLWRAA2</t>
+  </si>
+  <si>
+    <t>RMA-7L78-1-3</t>
+  </si>
+  <si>
+    <t>RMA-J91S-001</t>
+  </si>
+  <si>
+    <t>RMA-J91S-002</t>
+  </si>
+  <si>
+    <t>RMA-J91S-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLX8AAM</t>
+  </si>
+  <si>
+    <t>RMA-J91S-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLX9AAM</t>
+  </si>
+  <si>
+    <t>RMA-J91S-1-2</t>
+  </si>
+  <si>
+    <t>RMA-UGJ2-001</t>
+  </si>
+  <si>
+    <t>RMA-UGJ2-002</t>
+  </si>
+  <si>
+    <t>RMA-UGJ2-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXSAA2</t>
+  </si>
+  <si>
+    <t>RMA-UGJ2-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLXTAA2</t>
+  </si>
+  <si>
+    <t>RMA-UGJ2-1-2</t>
+  </si>
+  <si>
+    <t>RMA-KA8Z-001</t>
+  </si>
+  <si>
+    <t>RMA-KA8Z-002</t>
+  </si>
+  <si>
+    <t>RMA-KA8Z-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYGAA2</t>
+  </si>
+  <si>
+    <t>RMA-KA8Z-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYHAA2</t>
+  </si>
+  <si>
+    <t>RMA-KA8Z-1-2</t>
+  </si>
+  <si>
+    <t>RMA-QFCV-001</t>
+  </si>
+  <si>
+    <t>RMA-QFCV-002</t>
+  </si>
+  <si>
+    <t>RMA-QFCV-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYkAAM</t>
+  </si>
+  <si>
+    <t>RMA-QFCV-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLYlAAM</t>
+  </si>
+  <si>
+    <t>RMA-QFCV-1-2</t>
+  </si>
+  <si>
+    <t>RMA-CK6W-001</t>
+  </si>
+  <si>
+    <t>RMA-CK6W-002</t>
+  </si>
+  <si>
+    <t>RMA-CK6W-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZ9AAM</t>
+  </si>
+  <si>
+    <t>RMA-CK6W-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xLZAAA2</t>
+  </si>
+  <si>
+    <t>RMA-CK6W-1-2</t>
+  </si>
+  <si>
+    <t>RMA-0ICP-001</t>
+  </si>
+  <si>
+    <t>RMA-0ICP-002</t>
+  </si>
+  <si>
+    <t>RMA-0ICP-003</t>
   </si>
 </sst>
 </file>
@@ -571,7 +928,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +948,990 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1393,7 +2734,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -1599,11 +2940,257 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="299">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1737,8 +3324,172 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="66" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="298" fillId="0" borderId="148" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2628,12 +4379,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.71875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.27734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.11328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.23046875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2683,10 +4434,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2695,7 +4446,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2712,10 +4463,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2724,7 +4475,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2741,10 +4492,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2753,7 +4504,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="310">
   <si>
     <t>API Mode</t>
   </si>
@@ -919,6 +919,60 @@
   </si>
   <si>
     <t>RMA-0ICP-003</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-001</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-002</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAtAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAuAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMAvAAM</t>
+  </si>
+  <si>
+    <t>RMA-QKT3-1-3</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-001</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-002</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrnAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMroAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xMrpAAE</t>
+  </si>
+  <si>
+    <t>RMA-DFGZ-1-3</t>
   </si>
 </sst>
 </file>
@@ -928,7 +982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="323" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +1002,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2734,7 +2932,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="149">
+  <borders count="161">
     <border>
       <left/>
       <right/>
@@ -3186,11 +3384,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3488,8 +3722,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="298" fillId="0" borderId="148" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="322" fillId="0" borderId="160" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4380,11 +4638,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.41796875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.23046875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4434,10 +4692,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4446,7 +4704,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4463,10 +4721,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4475,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4492,10 +4750,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4504,7 +4762,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="337">
   <si>
     <t>API Mode</t>
   </si>
@@ -1000,6 +1000,60 @@
   </si>
   <si>
     <t>RMA-ZGSG-1-3</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-001</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-002</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNpAAAU</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNpBAAU</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNpCAAU</t>
+  </si>
+  <si>
+    <t>RMA-KQQJ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TH55-001</t>
+  </si>
+  <si>
+    <t>RMA-TH55-002</t>
+  </si>
+  <si>
+    <t>RMA-TH55-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNujAAE</t>
+  </si>
+  <si>
+    <t>RMA-TH55-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNukAAE</t>
+  </si>
+  <si>
+    <t>RMA-TH55-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xNulAAE</t>
+  </si>
+  <si>
+    <t>RMA-TH55-1-3</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1063,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="335" x14ac:knownFonts="1">
+  <fonts count="359" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1083,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3031,7 +3229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="167">
+  <borders count="179">
     <border>
       <left/>
       <right/>
@@ -3537,11 +3735,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="359">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -3875,8 +4109,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="333" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="334" fillId="0" borderId="166" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="358" fillId="0" borderId="178" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -4767,11 +5025,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.30859375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.7890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.69140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -4821,10 +5079,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -4833,7 +5091,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4850,10 +5108,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -4862,7 +5120,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4879,10 +5137,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -4891,7 +5149,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
